--- a/interface_atuo_cases0508/test_data/interface_cases1.xlsx
+++ b/interface_atuo_cases0508/test_data/interface_cases1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7005" windowWidth="22905"/>
+    <workbookView windowWidth="21555" windowHeight="6705"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
   <si>
     <t>id</t>
   </si>
@@ -110,7 +110,7 @@
     <t>{"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411", "skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623"}</t>
   </si>
   <si>
-    <t>话术-新增共有话术与私有化术-0表示公有</t>
+    <t>话术-新增公有话术与私有化术-0表示公有</t>
   </si>
   <si>
     <t>/v1/tenants/_1NTMWLA/addProfessionalWords</t>
@@ -122,28 +122,40 @@
     <t>{'baseMessage': '增加话术成功', 'baseSuccess': True, 'httpStatusCode': 0}</t>
   </si>
   <si>
-    <t>话术-新增共有话术与私有化术-1表示私有</t>
+    <t>POST_del</t>
+  </si>
+  <si>
+    <t>话术-修改话术-0标识公有</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/updateProfessionalWords</t>
+  </si>
+  <si>
+    <t>{"id":1,"professionalWords":"测试公有话术修改","state":0,"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411"}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试标识公有接口", "result": "1", "code": 0}</t>
+  </si>
+  <si>
+    <t>{'baseMessage': '修改话术成功', 'baseSuccess': True, 'httpStatusCode': 0}</t>
+  </si>
+  <si>
+    <t>话术-新增公有话术与私有化术-1表示私有</t>
   </si>
   <si>
     <t>{"professionalWords": "测试标识私有接口","staffId": "s_819aee8ed8554b9f82e8d6302c8d2411","state": 1}</t>
   </si>
   <si>
-    <t>POST_del</t>
-  </si>
-  <si>
-    <t>话术-修改话术-0标识公有</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/updateProfessionalWords</t>
-  </si>
-  <si>
-    <t>{"id":1,"professionalWords":"测试公有话术修改","state":0,"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试标识公有接口", "result": "1", "code": 0}</t>
-  </si>
-  <si>
-    <t>{'baseMessage': '修改话术成功', 'baseSuccess': True, 'httpStatusCode': 0}</t>
+    <t>话术-获取公有话术与私有化术列表-0表示公有</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/queryProfessionalWords</t>
+  </si>
+  <si>
+    <t>{ "professionalWords":"完","state":0, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 764, 'professionalWords': '已完成的', 'state': 0, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:27.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
   </si>
   <si>
     <t>话术-修改话术-1标识私有</t>
@@ -155,13 +167,22 @@
     <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试标识私有接口", "result": "1", "code": 0}</t>
   </si>
   <si>
+    <t>话术-获取公有话术与私有化术列表-1表示私有</t>
+  </si>
+  <si>
+    <t>{ "professionalWords":"完","state":1, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 762, 'professionalWords': '已完成', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'state': 1, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:06.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
+  </si>
+  <si>
     <t>话术-删除公有话术与私有化术-0表示公有</t>
   </si>
   <si>
     <t>/v1/tenants/_1NTMWLA/deleteProfessionalWords</t>
   </si>
   <si>
-    <t>{"1":"sensitive_word"}</t>
+    <t>{"id":"1"}</t>
   </si>
   <si>
     <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试公有话术修改", "result": "1", "code": 0}</t>
@@ -176,27 +197,6 @@
     <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试私有话术修改", "result": "1", "code": 0}</t>
   </si>
   <si>
-    <t>话术-获取公有话术与私有化术列表-0表示公有</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/queryProfessionalWords</t>
-  </si>
-  <si>
-    <t>{ "professionalWords":"完","state":0, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 764, 'professionalWords': '已完成的', 'state': 0, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:27.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
-  </si>
-  <si>
-    <t>话术-获取公有话术与私有化术列表-1表示私有</t>
-  </si>
-  <si>
-    <t>{ "professionalWords":"完","state":1, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 762, 'professionalWords': '已完成', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'state': 1, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:06.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
-  </si>
-  <si>
     <t>功能管理-满意度信息-展示满意度信息</t>
   </si>
   <si>
@@ -221,15 +221,15 @@
     <t>{"configCode":"EVALUATION_CONTEXT","configName":"evaluationContext","configValue":"[{\"guidanceDocument\":\"123456789012345678901234567890\",\"declare\":\"123456789012345\",\"selectedLabel\":[\"没解决问题\"],\"rate\":5,\"labelRequired\":1,\"guideLanguage\":\"欢迎给我们服务提建议〜\",\"guideLanguageRequired\":1,\"label\":[\"没解决问题\",\"不礼貌\",\"服务态度差\",\"回答不及时\"],\"switch\":0},{\"guidanceDocument\":\"非常满意，完美\",\"declare\":\"3\",\"selectedLabel\":[\"没解决问题\",\"回答不及时\",\"服务态度差\",\"不礼貌\"],\"rate\":4,\"labelRequired\":1,\"guideLanguage\":\"123456789012345678901234567890\",\"guideLanguageRequired\":1,\"label\":[\"没解决问题\",\"不礼貌\",\"服务态度差\",\"回答不及时\",\"皎月飞光\",\"科幻\"],\"switch\":0},{\"guidanceDocument\":\"非常满意，完美\",\"declare\":\"123456789012345\",\"selectedLabel\":[\"没解决问题\"],\"rate\":3,\"labelRequired\":1,\"guideLanguage\":\"123456789012345678901234567890\",\"guideLanguageRequired\":1,\"label\":[\"没解决问题\",\"不礼貌\",\"服务态度差\",\"回答不及时\",\"皎月飞光\",\"皎月飞光\"],\"switch\":0},{\"guidanceDocument\":\"非常满意，完美\",\"declare\":\"123456789012345\",\"selectedLabel\":[\"没解决问题\"],\"rate\":2,\"labelRequired\":1,\"guideLanguage\":\"123456789012345678901234567890\",\"guideLanguageRequired\":1,\"label\":[\"没解决问题\",\"不礼貌\",\"服务态度差\",\"回答不及时\",\"皎月飞光\",\"科幻\"],\"switch\":0},{\"guidanceDocument\":\"非常满意，完美\",\"declare\":\"123456789012345\",\"selectedLabel\":[\"没解决问题\"],\"rate\":1,\"labelRequired\":1,\"guideLanguage\":\"123456789012345678901234567890\",\"guideLanguageRequired\":1,\"label\":[\"没解决问题\",\"不礼貌\",\"服务态度差\",\"回答不及时\",\"皎月飞光\",\"魔幻\"],\"switch\":0}]","configState":"true","configDescription":""}</t>
   </si>
   <si>
+    <t>{"1":1}</t>
+  </si>
+  <si>
     <t>基础设置-查看技能组</t>
   </si>
   <si>
     <t>/v1/tenants/_1NTMWLA/get-skill-groups</t>
   </si>
   <si>
-    <t>{"1":1}</t>
-  </si>
-  <si>
     <t>[{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}]</t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>/v1/tenants/_1NTMWLA/get-staff/dc14c144-a9bb-4beb-ad0a-2df4be155623</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563525470000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 5, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1563763058000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'isModifyPassword': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '30:5b3130302c203130392c2031302c2037372c2035312c2037362c203131312c2034312c203131312c2032312c202d39362c202d3131392c202d3132302c202d36382c202d35392c202d345d:f93580ab8627059009a23bc49acc0ab7cd07b8dc55da4206b32129f0411de56d', 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '章3', 'entryTime': 1561539261000, 'gmtCreate': 1561539262000, 'gmtModified': 1561539262000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564150045000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'isModifyPassword': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '30:5b3130302c203130392c2031302c2037372c2035312c2037362c203131312c2034312c203131312c2032312c202d39362c202d3131392c202d3132302c202d36382c202d35392c202d345d:f93580ab8627059009a23bc49acc0ab7cd07b8dc55da4206b32129f0411de56d', 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}]}</t>
   </si>
   <si>
     <t>基础设置-查询询问前表单</t>
@@ -266,7 +266,7 @@
     <t>{"configType":4}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'SKILLSGROUP_DOWNTIME', 'configDescription': '', 'configName': 'skillsGroupDowntime', 'configState': True, 'configType': 4, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configName': 'workHours', 'configState': True, 'configType': 4, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":false,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-06-28","endDate":"2019-06-28"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1561700165000, 'gmtModified': 1561700165000, 'id': 15, 'skillGroupCount': 3, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'skillGroupName': 'zhang001', 'staffGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'SKILLSGROUP_DOWNTIME', 'configDescription': '', 'configName': 'skillsGroupDowntime', 'configState': True, 'configType': 4, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configName': 'workHours', 'configState': True, 'configType': 4, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-06-28","endDate":"2019-06-28"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1563773072000, 'gmtModified': 1563773072000, 'id': 15, 'skillGroupCount': 3, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'skillGroupName': 'zhang001', 'staffGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>基础设置-查询整体工作时间</t>
@@ -308,7 +308,7 @@
     <t>{"name": "测试新增机构2","responsible": "责任人","parent": "0"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 104}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 138}</t>
   </si>
   <si>
     <t>组织机构-修改负责人</t>
@@ -320,21 +320,6 @@
     <t>{"name":"666","parent":"0","responsible":""}</t>
   </si>
   <si>
-    <t>组织机构-停用机构</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/modifyOrganizationStatus/33</t>
-  </si>
-  <si>
-    <t>{"status": "0"}</t>
-  </si>
-  <si>
-    <t>组织机构-启用机构</t>
-  </si>
-  <si>
-    <t>{"status": "1"}</t>
-  </si>
-  <si>
     <t>客服列表-启用账号</t>
   </si>
   <si>
@@ -389,7 +374,7 @@
     <t>{"staffIds":"s_819aee8ed8554b9f82e8d6302c8d2411"}</t>
   </si>
   <si>
-    <t>organzation_staff_1563763194698.xlsx</t>
+    <t>organzation_staff_1564624501091.xlsx</t>
   </si>
   <si>
     <t>组织机构-导出</t>
@@ -401,7 +386,7 @@
     <t>{"organizationIds":[22,23,24]}</t>
   </si>
   <si>
-    <t>organzation_1563763194842.xlsx</t>
+    <t>organzation_1564624502048.xlsx</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -455,7 +440,7 @@
     <t>{"description":"备注内容","roleName":"测试客服1","menuList":[{"menuCode":"switch_staff_online_status","menuSource":0},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
   </si>
   <si>
-    <t>{'roleId': 'b46c7306-530b-4e79-98ae-7fec5428ef72'}</t>
+    <t>{'roleId': '2b8a6cba-d3b1-4660-92bc-0080a501d7bb'}</t>
   </si>
   <si>
     <t>角色权限-创建角色-1表示关闭</t>
@@ -464,7 +449,7 @@
     <t>{"description":"备注内容","roleName":"测试客服2","menuList":[{"menuCode":"switch_staff_online_status","menuSource":1},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
   </si>
   <si>
-    <t>{'roleId': '587cabdf-f33d-41d2-b55d-993577271663'}</t>
+    <t>{'roleId': '5802b2ac-40b6-452d-a9be-cba67a7baa2e'}</t>
   </si>
   <si>
     <t>角色权限-停用角色状态</t>
@@ -512,7 +497,7 @@
     <t>角色权限-获取角色信息</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1563763196000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
+    <t>{'roles': [{'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564624510000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
   </si>
   <si>
     <t>角色权限-角色名称是否存在</t>
@@ -536,7 +521,7 @@
     <t>{"roleIds":["67ed99dc-3645-4215-90df-25945f1da49b","27acc809-03ab-4050-92d5-5f092678b8ed","8ddc45a6-b7b5-477e-9431-eee41fe31b23","1e56829e-83a0-48ec-86ca-6530a0b673bd"]}</t>
   </si>
   <si>
-    <t>{'fileName': 'role_1563763197879.xlsx'}</t>
+    <t>{'fileName': 'role_1564624516540.xlsx'}</t>
   </si>
   <si>
     <t>客服列表-滚动角色</t>
@@ -545,7 +530,7 @@
     <t>/v1/tenants/_1NTMWLA/roles-list</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1563763196000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}]}</t>
+    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564624510000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}]}</t>
   </si>
   <si>
     <t>敏感词-展示敏感词-0表示客服</t>
@@ -596,7 +581,7 @@
     <t>{"belong": 0,"ids": [3, 4, 5]}</t>
   </si>
   <si>
-    <t>excel_1563763198806.xlsx</t>
+    <t>excel_1564624522338.xlsx</t>
   </si>
   <si>
     <t>敏感词-导出敏感词-1表示客户</t>
@@ -605,7 +590,7 @@
     <t>{"belong": 1,"ids": [2, 6, 8]}</t>
   </si>
   <si>
-    <t>excel_1563763198924.xlsx</t>
+    <t>excel_1564624523334.xlsx</t>
   </si>
   <si>
     <t>敏感词-更新敏感词-0表示客服</t>
@@ -656,9 +641,6 @@
     <t>/v1/tenants/_1NTMWLA/sensitiveWorldDelete</t>
   </si>
   <si>
-    <t>{"id":1}</t>
-  </si>
-  <si>
     <t>{"my_sql": "select * from sensitive_word where sensitive_word=%s", "condition": "测试客服敏感词新增","result": "1", "code": 0}</t>
   </si>
   <si>
@@ -671,13 +653,331 @@
     <t>{"my_sql": "select * from sensitive_word where sensitive_word=%s", "condition": "测试客户敏感词新增","result": "1", "code": 0}</t>
   </si>
   <si>
+    <t>POST_word</t>
+  </si>
+  <si>
     <t>敏感词过滤-jar包-0表示客服</t>
   </si>
   <si>
-    <t>:8081/v1/tenants/_1NTMWLA/sensitiveWordFilter</t>
+    <t>:8081/v1/sensitive/sensitiveWordFilterWithBelong</t>
+  </si>
+  <si>
+    <t>{"text":"测试客服更新1","belong":0}</t>
+  </si>
+  <si>
+    <t>测试客服更新1</t>
   </si>
   <si>
     <t>敏感词过滤-jar包-1表示客户</t>
+  </si>
+  <si>
+    <t>{"text":"测试客户更新1","belong":1}</t>
+  </si>
+  <si>
+    <t>测试客户更新1</t>
+  </si>
+  <si>
+    <t>在线-客服发送消息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/116faeb5f6e84fcea8c15bf77ce1c31d/messages/staff/s_819aee8ed8554b9f82e8d6302c8d2411</t>
+  </si>
+  <si>
+    <t>{"from":"s_819aee8ed8554b9f82e8d6302c8d2411","messageBody":{"message":"&lt;p&gt;动画&lt;/p&gt;"},"message":"&lt;p&gt;动画&lt;/p&gt;","messageType":"text/plain"}</t>
+  </si>
+  <si>
+    <t>{'code': 'StaffTimeoutOfflineException', 'message': '您或者对方长时间未操作已被强制下线'}</t>
+  </si>
+  <si>
+    <t>客服端-关闭会话_强光新增</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/116faeb5f6e84fcea8c15bf77ce1c31d/closeWaitSessionForVisitor</t>
+  </si>
+  <si>
+    <t>{"1":0}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from staff where username=%s", "condition": "zhang001","result": "1", "code": 0}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>功能管理-获取配置列表信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/global-config</t>
+  </si>
+  <si>
+    <t>{"configType":1}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'staffTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"客服人员正在努力查询中，请稍候","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"123456789012345678901234567890","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'sessionTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"words":"您好，我们长时间没有收到回复，系统将结束此次会话","time":240}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":5,"labelRequired":1,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': False, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"time":"1"}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'rowCount': 0}</t>
+  </si>
+  <si>
+    <t>POST2</t>
+  </si>
+  <si>
+    <t>在线-稍后处理-完成稍后处理</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/116faeb5f6e84fcea8c15bf77ce1c31d/deleteLaterProcessing</t>
+  </si>
+  <si>
+    <t>客户消息计时器</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/getVisitorWaitTime</t>
+  </si>
+  <si>
+    <t>{"groupSessionIds":"116faeb5f6e84fcea8c15bf77ce1c31d"}</t>
+  </si>
+  <si>
+    <t>{'groupSessionIds': [{'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'waitTime': '0'}]}</t>
+  </si>
+  <si>
+    <t>技能组-查询</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/skill-groups</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNumber":1,"skillGroupName":"z"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 3, 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'totalCount': 1, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'totalCount': 3, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'totalCount': 3, 'type': 1}]}</t>
+  </si>
+  <si>
+    <t>客服上传文件</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staff/116faeb5f6e84fcea8c15bf77ce1c31d/upload</t>
+  </si>
+  <si>
+    <t>{"name": "uploadFile", "filename": "2018070420479.gif"}</t>
+  </si>
+  <si>
+    <t>{'url': 'files/_1NTMWLA/116faeb5f6e84fcea8c15bf77ce1c31d/s_819aee8ed8554b9f82e8d6302c8d2411/116faeb5f6e84fcea8c15bf77ce1c31d_7e04a5ba1758417ba001920dd894e1a7.gif', 'baseMessage': '上传成功'}</t>
+  </si>
+  <si>
+    <t>客服列表-修改客服信息2-个人信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staff/modify-staff-info</t>
+  </si>
+  <si>
+    <t>{"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","email":"","staffName":"章广华","displayName":"章","phone":"13622222222","avatar":"/static/media/line_icon_photo01.646c3740.svg","oldPassword":"","newPassword":""}</t>
+  </si>
+  <si>
+    <t>客服列表-修改客服信息-他人信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_27dc197e2b184befa8dc863f7b429bd2</t>
+  </si>
+  <si>
+    <t>{"staffName":"章广华3","displayName":"章3","username":"zhang003","jobNumber":"003","entryTime":1561478400000,"phone":"13622222222","roleIds":["1e56829e-83a0-48ec-86ca-6530a0b673bd","515e555c-f319-4989-8457-c89a4b286218","8ddc45a6-b7b5-477e-9431-eee41fe31b23"],"skillGroupIds":["1fa50dc4-5520-4b58-8990-acad3baa5a89","dc14c144-a9bb-4beb-ad0a-2df4be155623","e37d7488-7a6b-4863-8d8b-0115b21ca0f8"],"level":5}</t>
+  </si>
+  <si>
+    <t>在线-稍后处理-展示稍后处理</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffId/s_819aee8ed8554b9f82e8d6302c8d2411/listLaterProcessing</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'chats': [], 'httpStatusCode': 0, 'number': 0}</t>
+  </si>
+  <si>
+    <t>功能管理-客户分流-查询客户分流接口</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffId/s_819aee8ed8554b9f82e8d6302c8d2411/queryStaffShunt</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffShunt': {'consultationSkillFirst': True, 'historyConsultationFirst': False, 'ordinaryCustomerFirst': False, 'personChargeFirst': False, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'starCustomerFirst': False, 'tenantId': '_1NTMWLA', 'vipCustomerFirst': False, 'workloadFirst': False}}</t>
+  </si>
+  <si>
+    <t>组织机构-下拉客服</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs-list</t>
+  </si>
+  <si>
+    <t>[{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564624496000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'gmtCreate': 1561602497000, 'gmtModified': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'gmtCreate': 1561604335000, 'gmtModified': 1561604335000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'gmtCreate': 1561614658000, 'gmtModified': 1561630938000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'phone': '13888888888', 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'gmtCreate': 1561622879000, 'gmtModified': 1561622879000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}]</t>
+  </si>
+  <si>
+    <t>在线-会话重排-按照等待时长重排</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/delay/s_819aee8ed8554b9f82e8d6302c8d2411/sessions</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>客服列表-获取客服信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
+  </si>
+  <si>
+    <t>客服端批量获取发送给自己的聊天消息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/batch-fetch-messages/tome</t>
+  </si>
+  <si>
+    <t>{"sessions":'[{"groupSessionId":"116faeb5f6e84fcea8c15bf77ce1c31d"}]',"direction ":"forward"}</t>
+  </si>
+  <si>
+    <t>在线-历史消息-获取历史消息聊天记录</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/batch-fetch-messages</t>
+  </si>
+  <si>
+    <t>[{'from': 'v_a_ed2ccc8cfc3c40f8a20cea7134032db9', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623'}, 'messageId': '6550245263989014531', 'messageType': 'event/switchToStaff', 'sentTime': 1561700168606, 'sessionId': 'df15ff5d57024ad3b22d788bc67a2030', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'from': 'INIT', 'to': 's_819aee8ed8554b9f82e8d6302c8d2411'}, 'messageId': '6550245264123232259', 'messageType': 'event/staffConnected', 'sentTime': 1561700168637, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'message': 'visitor_closed'}, 'messageId': '6550245273497501699', 'messageType': 'event/sessionClosed', 'sentTime': 1561700170873, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}]</t>
+  </si>
+  <si>
+    <t>客服状态-上线-"online"表示上线</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/online</t>
+  </si>
+  <si>
+    <t>{"status":"online"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564624552754, 'value': 'c8613eab81ea4ef7bc226fe8832d9edc'}}</t>
+  </si>
+  <si>
+    <t>客服列表-修改客服会话上限</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/level</t>
+  </si>
+  <si>
+    <t>{"level":100}</t>
+  </si>
+  <si>
+    <t>客服状态-小休-"rest"表示小休</t>
+  </si>
+  <si>
+    <t>{"status":"rest"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'rest'}</t>
+  </si>
+  <si>
+    <t>客服状态-离线-"offline"表示离线</t>
+  </si>
+  <si>
+    <t>{"status":"offline"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'offline'}</t>
+  </si>
+  <si>
+    <t>在线-客服获取当前会话</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/sessions</t>
+  </si>
+  <si>
+    <t>获取客服当前排队信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/waiting-info</t>
+  </si>
+  <si>
+    <t>客服列表-获取客服列表</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffs</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 8, 'staffInfoList': [{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'password': 'yangnk5', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'password': 'yangnk4', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'password': 'yangnk3', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'password': 'yangnk2', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['162babff-74c6-4cc5-b40b-3344de43b7c6', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': '章3', 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '003', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': '章2', 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '002', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'roleIds': ['515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': [], 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}]}</t>
+  </si>
+  <si>
+    <t>客服列表-选择数据导出Excel</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staffsExport</t>
+  </si>
+  <si>
+    <t>{'staffIds':'s_2fe3875c390040b489b644cc5c1ae0e2'}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'fileName': 'staff_1564624560622.xlsx', 'httpStatusCode': 0}</t>
+  </si>
+  <si>
+    <t>功能管理-客户分流-修改客户分流接口-客户技能优先级true开启</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/updateStaffShunt</t>
+  </si>
+  <si>
+    <t>{"consultationSkillFirst":"true","historyConsultationFirst":"true","ordinaryCustomerFirst":"true","personChargeFirst":"true","staffId":"s_d5aee8db4c8b4a33a8028f89be8c0fcf","starCustomerFirst":"true","tenantId":"_1NTMWLA","vipCustomerFirst":"true","workloadFirst":"true"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'success': False}</t>
+  </si>
+  <si>
+    <t>功能管理-客户分流-修改客户分流接口-客户技能优先级false关闭</t>
+  </si>
+  <si>
+    <t>{"consultationSkillFirst":"false","historyConsultationFirst":"true","ordinaryCustomerFirst":"true","personChargeFirst":"true","staffId":"s_d5aee8db4c8b4a33a8028f89be8c0fcf","starCustomerFirst":"true","tenantId":"_1NTMWLA","vipCustomerFirst":"true","workloadFirst":"true"}</t>
+  </si>
+  <si>
+    <t>在线-历史消息-获取历史消息总信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/users/v_a_0d644fee1c7546f5af7bc3a84736948f/sessions</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'chats': [{'endTime': 1563846507836, 'groupSessionId': 'cf8ccbbb575c4df7bd8de0c4eac9bb7d', 'prevSessionId': '533fc252a1884e02a8d8a587928e6edb', 'sessionId': '99b916bda54b498db1caf34367a69af0', 'sessionStatus': 1, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffAvatar': '/static/media/line_icon_photo01.646c3740.svg', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'startTime': 1563844699926, 'tenantId': '_1NTMWLA', 'userId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'userName': 'anonymous'}], 'httpStatusCode': 0}</t>
+  </si>
+  <si>
+    <t>在线-新增用户标签</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/visitorId/undefined/addPersionas</t>
+  </si>
+  <si>
+    <t>{"personasLabel":"满意"}</t>
+  </si>
+  <si>
+    <t>在线-查询用户信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/visitorId/v_a_0d644fee1c7546f5af7bc3a84736948f/queryVisitorInfo</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'chats': [{'endTime': 1563846507836, 'groupSessionId': 'cf8ccbbb575c4df7bd8de0c4eac9bb7d', 'prevSessionId': '533fc252a1884e02a8d8a587928e6edb', 'sessionId': '99b916bda54b498db1caf34367a69af0', 'sessionStatus': 1, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffAvatar': '/static/media/line_icon_photo01.646c3740.svg', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'startTime': 1563844699926, 'tenantId': '_1NTMWLA', 'userId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'userName': 'anonymous'}], 'httpStatusCode': 0, 'openId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'personasLabel': '', 'userName': 'anonymous'}</t>
+  </si>
+  <si>
+    <t>客服状态-退出登陆</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/logout</t>
+  </si>
+  <si>
+    <t>restult</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>error_1</t>
+  </si>
+  <si>
+    <t>{'testname': '质量保障部—章广华', 'time': '2019-08-01 09:54:32', 'sumtime': '0:01:34.120225', 'testresult': '共 90 条接口用例，通过 88 条，失败 2 条', 'tonggl': '97.78%'}</t>
   </si>
 </sst>
 </file>
@@ -685,198 +985,204 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="9.75"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +1194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,19 +1230,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,25 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +1302,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,55 +1332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,6 +1343,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1067,13 +1381,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,30 +1407,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,112 +1445,119 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="5" numFmtId="0"/>
-    <xf borderId="3" fillId="13" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="7" fillId="12" fontId="19" numFmtId="0"/>
-    <xf borderId="3" fillId="12" fontId="10" numFmtId="0"/>
-    <xf borderId="5" fillId="16" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="4" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1516,36 +1817,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="F15" pane="bottomLeft" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.88333333333333"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="39.1333333333333"/>
-    <col customWidth="1" max="4" min="4" width="72.75"/>
-    <col customWidth="1" max="5" min="5" width="72"/>
-    <col customWidth="1" max="6" min="6" width="37.5"/>
-    <col customWidth="1" max="7" min="7" width="5.775"/>
-    <col customWidth="1" max="8" min="8" width="8.775"/>
-    <col customWidth="1" max="9" min="9" width="10.775"/>
-    <col customWidth="1" max="10" min="10" width="9"/>
-    <col customWidth="1" max="11" min="11" width="39.3333333333333"/>
-    <col customWidth="1" max="12" min="12" width="9.133333333333329"/>
+    <col min="1" max="1" width="2.88333333333333" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="39.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="72.75" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="8.775" customWidth="1"/>
+    <col min="9" max="9" width="10.775" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="39.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="9.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.8" r="1" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1580,8 +1878,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1610,7 +1908,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1642,7 +1940,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1674,7 +1972,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1706,7 +2004,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1738,87 +2036,78 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -1830,21 +2119,21 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -1855,54 +2144,45 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -1914,7 +2194,7 @@
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1926,27 +2206,27 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -1958,11 +2238,11 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1994,7 +2274,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2010,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -2026,20 +2306,20 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -2058,7 +2338,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2068,10 +2348,10 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -2090,7 +2370,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2103,7 +2383,7 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -2122,7 +2402,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2154,7 +2434,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2186,7 +2466,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2218,7 +2498,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2234,7 +2514,7 @@
         <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -2250,7 +2530,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2263,7 +2543,7 @@
         <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -2282,7 +2562,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2314,7 +2594,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2346,11 +2626,11 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>101</v>
@@ -2362,18 +2642,27 @@
         <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>104</v>
@@ -2385,18 +2674,27 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>106</v>
@@ -2405,39 +2703,39 @@
         <v>107</v>
       </c>
       <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -2452,24 +2750,24 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -2484,24 +2782,24 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -2516,24 +2814,24 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -2548,27 +2846,27 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -2580,59 +2878,59 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -2648,52 +2946,52 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -2708,91 +3006,91 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>141</v>
-      </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -2804,11 +3102,11 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2824,7 +3122,7 @@
         <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -2840,23 +3138,23 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
         <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -2872,23 +3170,23 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
         <v>155</v>
       </c>
-      <c r="D43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" t="s">
-        <v>157</v>
-      </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -2904,55 +3202,55 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
         <v>160</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
         <v>161</v>
       </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>162</v>
       </c>
-      <c r="D45" t="s">
-        <v>159</v>
-      </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -2964,27 +3262,27 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
@@ -2996,24 +3294,24 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -3028,24 +3326,24 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -3060,24 +3358,24 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -3092,24 +3390,24 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -3124,56 +3422,56 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>182</v>
       </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -3188,24 +3486,24 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -3220,24 +3518,24 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -3252,340 +3550,1312 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
         <v>195</v>
       </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="E56" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" t="s">
-        <v>198</v>
-      </c>
       <c r="E57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
         <v>202</v>
       </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
         <v>207</v>
       </c>
-      <c r="G58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
         <v>209</v>
       </c>
-      <c r="D59" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" t="s">
-        <v>207</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="n">
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>216</v>
+      </c>
+      <c r="H60" t="s">
+        <v>216</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>212</v>
       </c>
-      <c r="E60" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
         <v>214</v>
       </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>130</v>
+      </c>
+      <c r="H62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
+      <c r="C69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" t="s">
+        <v>271</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" t="s">
+        <v>130</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" t="s">
+        <v>277</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" t="s">
+        <v>280</v>
+      </c>
+      <c r="E79" t="s">
+        <v>281</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" t="s">
+        <v>283</v>
+      </c>
+      <c r="F80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" t="s">
+        <v>286</v>
+      </c>
+      <c r="F81" t="s">
+        <v>226</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" t="s">
+        <v>301</v>
+      </c>
+      <c r="F86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>300</v>
+      </c>
+      <c r="E87" t="s">
+        <v>304</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" t="s">
+        <v>306</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" t="s">
+        <v>310</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="C4:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="87.5"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24" r="1" spans="1:4"/>
-    <row customHeight="1" ht="24" r="2" spans="1:4"/>
-    <row customHeight="1" ht="24" r="3" spans="1:4"/>
-    <row customHeight="1" ht="24" r="4" spans="1:4">
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24" r="5" spans="1:4"/>
-    <row customHeight="1" ht="24" r="6" spans="1:4"/>
-    <row customHeight="1" ht="24" r="7" spans="1:4"/>
-    <row customHeight="1" ht="24" r="8" spans="1:4"/>
-    <row customHeight="1" ht="24" r="9" spans="1:4"/>
-    <row customHeight="1" ht="24" r="10" spans="1:4"/>
-    <row customHeight="1" ht="24" r="11" spans="1:4"/>
-    <row customHeight="1" ht="24" r="12" spans="1:4"/>
-    <row customHeight="1" ht="24" r="13" spans="1:4"/>
-    <row customHeight="1" ht="24" r="14" spans="1:4"/>
-    <row customHeight="1" ht="24" r="15" spans="1:4"/>
-    <row customHeight="1" ht="24" r="16" spans="1:4"/>
-    <row customHeight="1" ht="24" r="17" spans="1:4"/>
-    <row customHeight="1" ht="24" r="18" spans="1:4"/>
-    <row customHeight="1" ht="24" r="19" spans="1:4"/>
-    <row customHeight="1" ht="24" r="20" spans="1:4"/>
-    <row customHeight="1" ht="24" r="21" spans="1:4"/>
-    <row customHeight="1" ht="24" r="22" spans="1:4"/>
-    <row customHeight="1" ht="24" r="23" spans="1:4"/>
-    <row customHeight="1" ht="24" r="24" spans="1:4"/>
-    <row customHeight="1" ht="24" r="25" spans="1:4"/>
-    <row customHeight="1" ht="24" r="26" spans="1:4"/>
-    <row customHeight="1" ht="24" r="27" spans="1:4"/>
-    <row customHeight="1" ht="24" r="28" spans="1:4"/>
-    <row customHeight="1" ht="24" r="29" spans="1:4"/>
-    <row customHeight="1" ht="24" r="30" spans="1:4"/>
-    <row customHeight="1" ht="24" r="31" spans="1:4"/>
-    <row customHeight="1" ht="24" r="32" spans="1:4"/>
-    <row customHeight="1" ht="24" r="33" spans="1:4"/>
-    <row customHeight="1" ht="24" r="34" spans="1:4"/>
-    <row customHeight="1" ht="24" r="35" spans="1:4"/>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="19" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>